--- a/ISAC07/read_fai_07.xlsx
+++ b/ISAC07/read_fai_07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyue/vscode_git/ISAC07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E7013-F0A7-6345-8CD7-E94A5043723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89051CB-18E1-FA46-ADBD-A057596388F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c=-1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="169">
   <si>
     <t>c=1</t>
   </si>
@@ -179,7 +179,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -189,7 +190,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>2*</t>
@@ -201,7 +203,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
@@ -211,7 +214,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
@@ -232,7 +236,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>9</t>
@@ -242,7 +247,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
@@ -254,7 +260,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
@@ -264,7 +271,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
@@ -297,7 +305,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>c</t>
@@ -307,7 +316,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>=2pi/V</t>
@@ -337,7 +347,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>l</t>
@@ -347,7 +358,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ong</t>
@@ -374,7 +386,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>b</t>
@@ -384,7 +397,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>3/b1*cos</t>
@@ -396,7 +410,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>b</t>
@@ -406,7 +421,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1/b3*cos</t>
@@ -427,7 +443,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -437,7 +454,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -458,7 +476,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>a</t>
@@ -468,7 +487,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>c</t>
@@ -486,7 +506,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -496,7 +517,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ixiyiz</t>
@@ -508,7 +530,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>t</t>
@@ -518,7 +541,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>x</t>
@@ -530,7 +554,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>t</t>
@@ -540,7 +565,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>y</t>
@@ -552,7 +578,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>t</t>
@@ -562,7 +589,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="128"/>
+        <family val="4"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>z</t>
@@ -1286,13 +1314,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="128"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <charset val="128"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1702,7 +1732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1792,6 +1822,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4076,9 +4115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>547846</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>58420</xdr:rowOff>
+      <xdr:rowOff>57531</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4101,8 +4140,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="267970" y="4078605"/>
-          <a:ext cx="3709670" cy="3942715"/>
+          <a:off x="267970" y="4288155"/>
+          <a:ext cx="3708876" cy="4151376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4122,7 +4161,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>447673</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13762,7 +13801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="C1:AA124"/>
   <sheetViews>
-    <sheetView topLeftCell="J53" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J53" workbookViewId="0">
       <selection activeCell="X76" sqref="X76"/>
     </sheetView>
   </sheetViews>
@@ -24941,8 +24980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AO91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -25379,46 +25418,6 @@
         <v>0.5498831361001425</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14">
-        <v>23</v>
-      </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="G15">
-        <v>0.46354689394161502</v>
-      </c>
-      <c r="H15">
-        <v>1.0997662722002799</v>
-      </c>
-      <c r="I15">
-        <v>1.7318348159897701</v>
-      </c>
-      <c r="J15">
-        <v>90</v>
-      </c>
-      <c r="K15">
-        <v>68.23</v>
-      </c>
-      <c r="L15">
-        <v>90</v>
-      </c>
-    </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>58</v>
@@ -25859,14 +25858,16 @@
         <v>0.50229084160908433</v>
       </c>
     </row>
+    <row r="50" spans="12:41" ht="16" thickBot="1"/>
     <row r="51" spans="12:41">
-      <c r="M51" s="54" t="s">
+      <c r="L51" s="10"/>
+      <c r="M51" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="N51" s="54" t="s">
+      <c r="N51" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="O51" s="54" t="s">
+      <c r="O51" s="56" t="s">
         <v>91</v>
       </c>
       <c r="Q51" s="54" t="s">
@@ -25883,16 +25884,16 @@
       </c>
     </row>
     <row r="52" spans="12:41">
-      <c r="L52" s="54" t="s">
+      <c r="L52" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
+      <c r="M52" s="58">
+        <v>0</v>
+      </c>
+      <c r="N52" s="58">
+        <v>0</v>
+      </c>
+      <c r="O52" s="14">
         <v>0</v>
       </c>
       <c r="Q52" s="54" t="s">
@@ -25909,16 +25910,16 @@
       </c>
     </row>
     <row r="53" spans="12:41">
-      <c r="L53" s="54" t="s">
+      <c r="L53" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="58">
         <v>0.5</v>
       </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
+      <c r="N53" s="58">
+        <v>0</v>
+      </c>
+      <c r="O53" s="14">
         <v>0</v>
       </c>
       <c r="Q53" s="54" t="s">
@@ -25935,16 +25936,16 @@
       </c>
     </row>
     <row r="54" spans="12:41">
-      <c r="L54" s="54" t="s">
+      <c r="L54" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="58">
         <v>0.5</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="58">
         <v>0.5</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="14">
         <v>0</v>
       </c>
       <c r="Q54" s="54" t="s">
@@ -25958,16 +25959,16 @@
       </c>
     </row>
     <row r="55" spans="12:41">
-      <c r="L55" s="54" t="s">
+      <c r="L55" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
+      <c r="M55" s="58">
+        <v>0</v>
+      </c>
+      <c r="N55" s="58">
         <v>0.5</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="14">
         <v>0</v>
       </c>
       <c r="Q55" s="54" t="s">
@@ -25990,16 +25991,16 @@
       </c>
     </row>
     <row r="56" spans="12:41">
-      <c r="L56" s="54" t="s">
+      <c r="L56" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="M56" s="54" t="s">
+      <c r="M56" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" s="54" t="s">
+      <c r="N56" s="58">
+        <v>0</v>
+      </c>
+      <c r="O56" s="60" t="s">
         <v>141</v>
       </c>
       <c r="Q56" s="54" t="s">
@@ -26022,16 +26023,16 @@
       </c>
     </row>
     <row r="57" spans="12:41">
-      <c r="L57" s="54" t="s">
+      <c r="L57" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="M57" s="54" t="s">
+      <c r="M57" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" s="54" t="s">
+      <c r="N57" s="58">
+        <v>0</v>
+      </c>
+      <c r="O57" s="60" t="s">
         <v>128</v>
       </c>
       <c r="Q57" s="54" t="s">
@@ -26051,30 +26052,30 @@
       </c>
     </row>
     <row r="58" spans="12:41">
-      <c r="L58" s="54" t="s">
+      <c r="L58" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="M58" s="54" t="s">
+      <c r="M58" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="58">
         <v>0.5</v>
       </c>
-      <c r="O58" s="54" t="s">
+      <c r="O58" s="60" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="12:41">
-      <c r="L59" s="54" t="s">
+    <row r="59" spans="12:41" ht="16" thickBot="1">
+      <c r="L59" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="M59" s="54" t="s">
+      <c r="M59" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="16">
         <v>0.5</v>
       </c>
-      <c r="O59" s="54" t="s">
+      <c r="O59" s="63" t="s">
         <v>144</v>
       </c>
     </row>
